--- a/team_specific_matrix/Stanford_B.xlsx
+++ b/team_specific_matrix/Stanford_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1875</v>
+        <v>0.21</v>
       </c>
       <c r="C2">
-        <v>0.546875</v>
+        <v>0.53</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.109375</v>
+        <v>0.13</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.140625</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02777777777777778</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7777777777777778</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1944444444444444</v>
+        <v>0.2545454545454545</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09259259259259259</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01851851851851852</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07407407407407407</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07407407407407407</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01851851851851852</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1481481481481481</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R6">
-        <v>0.1111111111111111</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="S6">
-        <v>0.462962962962963</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07692307692307693</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02564102564102564</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02564102564102564</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1282051282051282</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05128205128205128</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.358974358974359</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="S7">
-        <v>0.2564102564102564</v>
+        <v>0.3283582089552239</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05128205128205128</v>
+        <v>0.06</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0170940170940171</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08547008547008547</v>
+        <v>0.115</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.15</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008547008547008548</v>
+        <v>0.015</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1965811965811966</v>
+        <v>0.19</v>
       </c>
       <c r="R8">
-        <v>0.1111111111111111</v>
+        <v>0.105</v>
       </c>
       <c r="S8">
-        <v>0.4188034188034188</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07692307692307693</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01923076923076923</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0576923076923077</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07692307692307693</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01923076923076923</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2884615384615384</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="R9">
-        <v>0.0576923076923077</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="S9">
-        <v>0.4038461538461539</v>
+        <v>0.4651162790697674</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.08918406072106262</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02058823529411765</v>
+        <v>0.01518026565464896</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07352941176470588</v>
+        <v>0.06831119544592031</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1323529411764706</v>
+        <v>0.127134724857685</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01470588235294118</v>
+        <v>0.02466793168880456</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1794117647058824</v>
+        <v>0.1878557874762808</v>
       </c>
       <c r="R10">
-        <v>0.07941176470588235</v>
+        <v>0.1024667931688805</v>
       </c>
       <c r="S10">
-        <v>0.4</v>
+        <v>0.3851992409867173</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.06666666666666667</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.15</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="K11">
-        <v>0.1333333333333333</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L11">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01666666666666667</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7692307692307693</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1794871794871795</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02564102564102564</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02564102564102564</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01587301587301587</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="I15">
-        <v>0.04761904761904762</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="J15">
-        <v>0.4603174603174603</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="K15">
-        <v>0.07936507936507936</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01587301587301587</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09523809523809523</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1428571428571428</v>
+        <v>0.1981132075471698</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.025</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.15</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="I16">
-        <v>0.05</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="J16">
-        <v>0.425</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="K16">
-        <v>0.2</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.025</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.025</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2377049180327869</v>
+        <v>0.21875</v>
       </c>
       <c r="I17">
-        <v>0.1311475409836066</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J17">
-        <v>0.3934426229508197</v>
+        <v>0.4114583333333333</v>
       </c>
       <c r="K17">
-        <v>0.08196721311475409</v>
+        <v>0.078125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.00819672131147541</v>
+        <v>0.015625</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06557377049180328</v>
+        <v>0.0625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08196721311475409</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.169811320754717</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="I18">
-        <v>0.05660377358490566</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="J18">
-        <v>0.5094339622641509</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="K18">
-        <v>0.05660377358490566</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01886792452830189</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1132075471698113</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07547169811320754</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00641025641025641</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2115384615384615</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="I19">
-        <v>0.09294871794871795</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J19">
-        <v>0.4230769230769231</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K19">
-        <v>0.08012820512820513</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.009615384615384616</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07692307692307693</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09935897435897435</v>
+        <v>0.09325396825396826</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Stanford_B.xlsx
+++ b/team_specific_matrix/Stanford_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.21</v>
+        <v>0.2348484848484849</v>
       </c>
       <c r="C2">
-        <v>0.53</v>
+        <v>0.4962121212121212</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.13</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.11</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03636363636363636</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01818181818181818</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6909090909090909</v>
+        <v>0.7299270072992701</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2545454545454545</v>
+        <v>0.2262773722627737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.03125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06315789473684211</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01052631578947368</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09473684210526316</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1052631578947368</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02105263157894737</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R6">
-        <v>0.07368421052631578</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="S6">
-        <v>0.4736842105263158</v>
+        <v>0.4072398190045249</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08955223880597014</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02985074626865672</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="F7">
-        <v>0.04477611940298507</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08955223880597014</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04477611940298507</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2835820895522388</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="R7">
-        <v>0.08955223880597014</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="S7">
-        <v>0.3283582089552239</v>
+        <v>0.3539325842696629</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.115</v>
+        <v>0.08463251670378619</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.15</v>
+        <v>0.1247216035634744</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.015</v>
+        <v>0.0155902004454343</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.19</v>
+        <v>0.1937639198218263</v>
       </c>
       <c r="R8">
-        <v>0.105</v>
+        <v>0.09354120267260579</v>
       </c>
       <c r="S8">
-        <v>0.355</v>
+        <v>0.4075723830734966</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09302325581395349</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02325581395348837</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04651162790697674</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06976744186046512</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02325581395348837</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2325581395348837</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R9">
-        <v>0.04651162790697674</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="S9">
-        <v>0.4651162790697674</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08918406072106262</v>
+        <v>0.08753943217665615</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01518026565464896</v>
+        <v>0.01419558359621451</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06831119544592031</v>
+        <v>0.06861198738170347</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.127134724857685</v>
+        <v>0.1198738170347003</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02466793168880456</v>
+        <v>0.02365930599369085</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1878557874762808</v>
+        <v>0.2200315457413249</v>
       </c>
       <c r="R10">
-        <v>0.1024667931688805</v>
+        <v>0.09779179810725552</v>
       </c>
       <c r="S10">
-        <v>0.3851992409867173</v>
+        <v>0.3682965299684542</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1157894736842105</v>
+        <v>0.1497975708502024</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1157894736842105</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="K11">
-        <v>0.1578947368421053</v>
+        <v>0.1740890688259109</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.582995951417004</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01052631578947368</v>
+        <v>0.008097165991902834</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7457627118644068</v>
+        <v>0.738562091503268</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2033898305084746</v>
+        <v>0.2091503267973856</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="L12">
-        <v>0.01694915254237288</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03389830508474576</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8235294117647058</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1764705882352941</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009433962264150943</v>
+        <v>0.02448979591836735</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.160377358490566</v>
+        <v>0.1591836734693877</v>
       </c>
       <c r="I15">
-        <v>0.0660377358490566</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J15">
-        <v>0.3962264150943396</v>
+        <v>0.363265306122449</v>
       </c>
       <c r="K15">
-        <v>0.05660377358490566</v>
+        <v>0.0653061224489796</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009433962264150943</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1037735849056604</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1981132075471698</v>
+        <v>0.2081632653061224</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01724137931034483</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1896551724137931</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="I16">
-        <v>0.05172413793103448</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="J16">
-        <v>0.3448275862068966</v>
+        <v>0.3774834437086093</v>
       </c>
       <c r="K16">
-        <v>0.1896551724137931</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01724137931034483</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08620689655172414</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.103448275862069</v>
+        <v>0.1059602649006623</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005208333333333333</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.21875</v>
+        <v>0.1921487603305785</v>
       </c>
       <c r="I17">
-        <v>0.1041666666666667</v>
+        <v>0.1053719008264463</v>
       </c>
       <c r="J17">
-        <v>0.4114583333333333</v>
+        <v>0.4338842975206612</v>
       </c>
       <c r="K17">
-        <v>0.078125</v>
+        <v>0.08057851239669421</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.015625</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1041666666666667</v>
+        <v>0.08677685950413223</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2043010752688172</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="I18">
-        <v>0.08602150537634409</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J18">
-        <v>0.4946236559139785</v>
+        <v>0.4375</v>
       </c>
       <c r="K18">
-        <v>0.05376344086021505</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02150537634408602</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07526881720430108</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06451612903225806</v>
+        <v>0.06696428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0119047619047619</v>
+        <v>0.01082431307243963</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2261904761904762</v>
+        <v>0.2081598667776852</v>
       </c>
       <c r="I19">
-        <v>0.09523809523809523</v>
+        <v>0.1074104912572856</v>
       </c>
       <c r="J19">
-        <v>0.3928571428571428</v>
+        <v>0.4004995836802664</v>
       </c>
       <c r="K19">
-        <v>0.08333333333333333</v>
+        <v>0.08825978351373855</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01984126984126984</v>
+        <v>0.01582014987510408</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.003330557868442964</v>
       </c>
       <c r="O19">
-        <v>0.07738095238095238</v>
+        <v>0.07077435470441298</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09325396825396826</v>
+        <v>0.09492089925062448</v>
       </c>
     </row>
   </sheetData>
